--- a/ratings_comparison_norubric.xlsx
+++ b/ratings_comparison_norubric.xlsx
@@ -469,7 +469,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8333333333333334</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -486,7 +486,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8333333333333334</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         <v>0.5</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8333333333333334</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -520,7 +520,7 @@
         <v>0.8333333333333334</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6666666666666666</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -537,7 +537,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8333333333333334</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -554,7 +554,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8333333333333334</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -571,7 +571,7 @@
         <v>0.8333333333333334</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8333333333333334</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -588,7 +588,7 @@
         <v>0.8333333333333334</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8333333333333334</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -605,7 +605,7 @@
         <v>0.8333333333333334</v>
       </c>
       <c r="E10" t="n">
-        <v>0.6666666666666666</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -622,7 +622,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8333333333333334</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -639,7 +639,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8333333333333334</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
@@ -656,7 +656,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6666666666666666</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
@@ -673,7 +673,7 @@
         <v>0.5</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8333333333333334</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
@@ -690,7 +690,7 @@
         <v>0.5</v>
       </c>
       <c r="E15" t="n">
-        <v>0.6666666666666666</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16">
@@ -707,7 +707,7 @@
         <v>0.5</v>
       </c>
       <c r="E16" t="n">
-        <v>0.6666666666666666</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17">
@@ -724,7 +724,7 @@
         <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8333333333333334</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -741,7 +741,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="E18" t="n">
-        <v>0.6666666666666666</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
@@ -758,7 +758,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="E19" t="n">
-        <v>0.8333333333333334</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20">
@@ -775,7 +775,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="E20" t="n">
-        <v>0.8333333333333334</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -792,7 +792,7 @@
         <v>0.5</v>
       </c>
       <c r="E21" t="n">
-        <v>0.8333333333333334</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22">
@@ -809,7 +809,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="E22" t="n">
-        <v>0.8333333333333334</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -826,7 +826,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="E23" t="n">
-        <v>0.6666666666666666</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24">
@@ -843,7 +843,7 @@
         <v>0.8333333333333334</v>
       </c>
       <c r="E24" t="n">
-        <v>0.6666666666666666</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25">
@@ -860,7 +860,7 @@
         <v>0.8333333333333334</v>
       </c>
       <c r="E25" t="n">
-        <v>0.6666666666666666</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26">
@@ -877,7 +877,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="E26" t="n">
-        <v>0.6666666666666666</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27">
@@ -894,7 +894,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="E27" t="n">
-        <v>0.6666666666666666</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28">
@@ -911,7 +911,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="E28" t="n">
-        <v>0.8333333333333334</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29">
@@ -928,7 +928,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="E29" t="n">
-        <v>0.8333333333333334</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30">
@@ -945,7 +945,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="E30" t="n">
-        <v>0.8333333333333334</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31">
@@ -962,7 +962,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="E31" t="n">
-        <v>0.6666666666666666</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32">
@@ -979,7 +979,7 @@
         <v>1</v>
       </c>
       <c r="E32" t="n">
-        <v>0.6666666666666666</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33">
@@ -996,7 +996,7 @@
         <v>0.8333333333333334</v>
       </c>
       <c r="E33" t="n">
-        <v>0.6666666666666666</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34">
@@ -1013,7 +1013,7 @@
         <v>0.5</v>
       </c>
       <c r="E34" t="n">
-        <v>0.6666666666666666</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35">
@@ -1030,7 +1030,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="E35" t="n">
-        <v>0.8333333333333334</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36">
@@ -1047,7 +1047,7 @@
         <v>0.8333333333333334</v>
       </c>
       <c r="E36" t="n">
-        <v>0.6666666666666666</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37">
@@ -1064,7 +1064,7 @@
         <v>0.8333333333333334</v>
       </c>
       <c r="E37" t="n">
-        <v>0.8333333333333334</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38">
@@ -1081,7 +1081,7 @@
         <v>1</v>
       </c>
       <c r="E38" t="n">
-        <v>0.6666666666666666</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39">
@@ -1098,7 +1098,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="E39" t="n">
-        <v>0.8333333333333334</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40">
@@ -1115,7 +1115,7 @@
         <v>0.8333333333333334</v>
       </c>
       <c r="E40" t="n">
-        <v>0.6666666666666666</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41">
@@ -1132,7 +1132,7 @@
         <v>0.5</v>
       </c>
       <c r="E41" t="n">
-        <v>0.6666666666666666</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42">
@@ -1149,7 +1149,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="E42" t="n">
-        <v>0.8333333333333334</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43">
@@ -1166,7 +1166,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="E43" t="n">
-        <v>0.6666666666666666</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44">
@@ -1183,7 +1183,7 @@
         <v>0.5</v>
       </c>
       <c r="E44" t="n">
-        <v>0.8333333333333334</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45">
@@ -1200,7 +1200,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="E45" t="n">
-        <v>0.8333333333333334</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46">
@@ -1217,7 +1217,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="E46" t="n">
-        <v>0.6666666666666666</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47">
@@ -1234,7 +1234,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="E47" t="n">
-        <v>0.8333333333333334</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48">
@@ -1251,7 +1251,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="E48" t="n">
-        <v>0.8333333333333334</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49">
@@ -1268,7 +1268,7 @@
         <v>0.8333333333333334</v>
       </c>
       <c r="E49" t="n">
-        <v>0.8333333333333334</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50">
@@ -1285,7 +1285,7 @@
         <v>0.5</v>
       </c>
       <c r="E50" t="n">
-        <v>0.8333333333333334</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51">
@@ -1302,7 +1302,7 @@
         <v>0.5</v>
       </c>
       <c r="E51" t="n">
-        <v>0.8333333333333334</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52">
@@ -1319,7 +1319,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="E52" t="n">
-        <v>0.8333333333333334</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53">
@@ -1336,7 +1336,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="E53" t="n">
-        <v>0.8333333333333334</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54">
@@ -1353,7 +1353,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="E54" t="n">
-        <v>0.6666666666666666</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55">
@@ -1370,7 +1370,7 @@
         <v>0.8333333333333334</v>
       </c>
       <c r="E55" t="n">
-        <v>0.8333333333333334</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56">
@@ -1387,7 +1387,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="E56" t="n">
-        <v>0.8333333333333334</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57">
@@ -1404,7 +1404,7 @@
         <v>0.8333333333333334</v>
       </c>
       <c r="E57" t="n">
-        <v>0.6666666666666666</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58">
@@ -1421,7 +1421,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="E58" t="n">
-        <v>0.8333333333333334</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59">
@@ -1438,7 +1438,7 @@
         <v>0.5</v>
       </c>
       <c r="E59" t="n">
-        <v>0.8333333333333334</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60">
@@ -1455,7 +1455,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="E60" t="n">
-        <v>0.6666666666666666</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61">
@@ -1472,7 +1472,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="E61" t="n">
-        <v>0.8333333333333334</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62">
@@ -1489,7 +1489,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="E62" t="n">
-        <v>0.6666666666666666</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63">
@@ -1506,7 +1506,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="E63" t="n">
-        <v>0.8333333333333334</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64">
@@ -1523,7 +1523,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="E64" t="n">
-        <v>0.8333333333333334</v>
+        <v>5</v>
       </c>
     </row>
     <row r="65">
@@ -1540,7 +1540,7 @@
         <v>0.5</v>
       </c>
       <c r="E65" t="n">
-        <v>0.8333333333333334</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66">
@@ -1557,7 +1557,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="E66" t="n">
-        <v>0.6666666666666666</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67">
@@ -1574,7 +1574,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="E67" t="n">
-        <v>0.8333333333333334</v>
+        <v>5</v>
       </c>
     </row>
     <row r="68">
@@ -1591,7 +1591,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="E68" t="n">
-        <v>0.8333333333333334</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69">
@@ -1608,7 +1608,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="E69" t="n">
-        <v>0.8333333333333334</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70">
@@ -1625,7 +1625,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="E70" t="n">
-        <v>0.8333333333333334</v>
+        <v>4</v>
       </c>
     </row>
     <row r="71">
@@ -1642,7 +1642,7 @@
         <v>1</v>
       </c>
       <c r="E71" t="n">
-        <v>0.8333333333333334</v>
+        <v>5</v>
       </c>
     </row>
     <row r="72">
@@ -1659,7 +1659,7 @@
         <v>0.8333333333333334</v>
       </c>
       <c r="E72" t="n">
-        <v>0.8333333333333334</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73">
@@ -1676,7 +1676,7 @@
         <v>0.8333333333333334</v>
       </c>
       <c r="E73" t="n">
-        <v>0.6666666666666666</v>
+        <v>4</v>
       </c>
     </row>
     <row r="74">
@@ -1693,7 +1693,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="E74" t="n">
-        <v>0.8333333333333334</v>
+        <v>4</v>
       </c>
     </row>
     <row r="75">
@@ -1710,7 +1710,7 @@
         <v>0.5</v>
       </c>
       <c r="E75" t="n">
-        <v>0.6666666666666666</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76">
@@ -1727,7 +1727,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="E76" t="n">
-        <v>0.6666666666666666</v>
+        <v>4</v>
       </c>
     </row>
     <row r="77">
@@ -1744,7 +1744,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="E77" t="n">
-        <v>0.6666666666666666</v>
+        <v>4</v>
       </c>
     </row>
     <row r="78">
@@ -1761,7 +1761,7 @@
         <v>0.8333333333333334</v>
       </c>
       <c r="E78" t="n">
-        <v>0.6666666666666666</v>
+        <v>5</v>
       </c>
     </row>
     <row r="79">
@@ -1778,7 +1778,7 @@
         <v>0.8333333333333334</v>
       </c>
       <c r="E79" t="n">
-        <v>0.6666666666666666</v>
+        <v>5</v>
       </c>
     </row>
     <row r="80">
@@ -1795,7 +1795,7 @@
         <v>0.8333333333333334</v>
       </c>
       <c r="E80" t="n">
-        <v>0.8333333333333334</v>
+        <v>5</v>
       </c>
     </row>
     <row r="81">
@@ -1812,7 +1812,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="E81" t="n">
-        <v>0.6666666666666666</v>
+        <v>4</v>
       </c>
     </row>
     <row r="82">
@@ -1829,7 +1829,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="E82" t="n">
-        <v>0.6666666666666666</v>
+        <v>4</v>
       </c>
     </row>
     <row r="83">
@@ -1846,7 +1846,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="E83" t="n">
-        <v>0.6666666666666666</v>
+        <v>5</v>
       </c>
     </row>
     <row r="84">
@@ -1863,7 +1863,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="E84" t="n">
-        <v>0.8333333333333334</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85">
@@ -1880,7 +1880,7 @@
         <v>0.5</v>
       </c>
       <c r="E85" t="n">
-        <v>0.8333333333333334</v>
+        <v>4</v>
       </c>
     </row>
     <row r="86">
@@ -1897,7 +1897,7 @@
         <v>0.8333333333333334</v>
       </c>
       <c r="E86" t="n">
-        <v>0.8333333333333334</v>
+        <v>5</v>
       </c>
     </row>
     <row r="87">
@@ -1914,7 +1914,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="E87" t="n">
-        <v>0.6666666666666666</v>
+        <v>4</v>
       </c>
     </row>
     <row r="88">
@@ -1931,7 +1931,7 @@
         <v>0.8333333333333334</v>
       </c>
       <c r="E88" t="n">
-        <v>0.6666666666666666</v>
+        <v>5</v>
       </c>
     </row>
     <row r="89">
@@ -1948,7 +1948,7 @@
         <v>0.8333333333333334</v>
       </c>
       <c r="E89" t="n">
-        <v>0.6666666666666666</v>
+        <v>5</v>
       </c>
     </row>
     <row r="90">
@@ -1965,7 +1965,7 @@
         <v>0.5</v>
       </c>
       <c r="E90" t="n">
-        <v>0.6666666666666666</v>
+        <v>4</v>
       </c>
     </row>
     <row r="91">
@@ -1982,7 +1982,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="E91" t="n">
-        <v>0.6666666666666666</v>
+        <v>4</v>
       </c>
     </row>
     <row r="92">
@@ -1999,7 +1999,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="E92" t="n">
-        <v>0.6666666666666666</v>
+        <v>5</v>
       </c>
     </row>
     <row r="93">
@@ -2016,7 +2016,7 @@
         <v>1</v>
       </c>
       <c r="E93" t="n">
-        <v>0.8333333333333334</v>
+        <v>4</v>
       </c>
     </row>
     <row r="94">
@@ -2033,7 +2033,7 @@
         <v>1</v>
       </c>
       <c r="E94" t="n">
-        <v>0.8333333333333334</v>
+        <v>4</v>
       </c>
     </row>
     <row r="95">
@@ -2050,7 +2050,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="E95" t="n">
-        <v>0.6666666666666666</v>
+        <v>5</v>
       </c>
     </row>
     <row r="96">
@@ -2067,7 +2067,7 @@
         <v>0.8333333333333334</v>
       </c>
       <c r="E96" t="n">
-        <v>0.6666666666666666</v>
+        <v>5</v>
       </c>
     </row>
     <row r="97">
@@ -2084,7 +2084,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="E97" t="n">
-        <v>0.8333333333333334</v>
+        <v>5</v>
       </c>
     </row>
     <row r="98">
@@ -2101,7 +2101,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="E98" t="n">
-        <v>0.6666666666666666</v>
+        <v>4</v>
       </c>
     </row>
     <row r="99">
@@ -2118,7 +2118,7 @@
         <v>1</v>
       </c>
       <c r="E99" t="n">
-        <v>0.8333333333333334</v>
+        <v>5</v>
       </c>
     </row>
     <row r="100">
@@ -2135,7 +2135,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="E100" t="n">
-        <v>0.6666666666666666</v>
+        <v>5</v>
       </c>
     </row>
     <row r="101">
@@ -2152,7 +2152,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="E101" t="n">
-        <v>0.8333333333333334</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
